--- a/diagramme/Gantt-BlackMamba.xlsx
+++ b/diagramme/Gantt-BlackMamba.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58139A10-9058-40E4-A8D6-3BDBFFB18F66}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7DEE18-622E-4F6C-9156-8EC1A2543B18}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="65">
   <si>
     <t>Plan</t>
   </si>
@@ -242,6 +242,28 @@
   </si>
   <si>
     <t>EXTRA-DAY pour R0</t>
+  </si>
+  <si>
+    <t>Realiser le ReadMe</t>
+  </si>
+  <si>
+    <t>Realiser le Mock</t>
+  </si>
+  <si>
+    <t>Mapper les capteurs sur les emplacements + Visualiser
+le plan des capteurs</t>
+  </si>
+  <si>
+    <t>Motinorer les alertes</t>
+  </si>
+  <si>
+    <t>Configurer les capteurs</t>
+  </si>
+  <si>
+    <t>outil d’analyse BI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tâches diverses </t>
   </si>
 </sst>
 </file>
@@ -859,7 +881,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1037,6 +1059,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="9" fillId="9" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="9" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="9" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1094,74 +1185,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="9" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="9" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="9" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1174,7 +1202,346 @@
     <cellStyle name="Project Headers" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Titre 1" xfId="1" builtinId="16" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="34">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1571,14 +1938,14 @@
   </sheetPr>
   <dimension ref="B2:BR41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
-      <selection activeCell="AF18" sqref="AF18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.58203125" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.58203125" customWidth="1"/>
-    <col min="2" max="2" width="33.58203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="36.08203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="7.08203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.4140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.33203125" style="1" customWidth="1"/>
@@ -1610,24 +1977,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:70" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
     </row>
     <row r="3" spans="2:70" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
@@ -1636,11 +2003,11 @@
       <c r="N3" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="O3" s="84" t="s">
+      <c r="O3" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="85"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="66"/>
       <c r="R3" s="5"/>
       <c r="S3" s="8" t="s">
         <v>0</v>
@@ -1659,13 +2026,13 @@
       <c r="AJ3" s="1"/>
     </row>
     <row r="4" spans="2:70" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
       <c r="O4" s="10"/>
       <c r="P4"/>
       <c r="Q4"/>
@@ -1675,7 +2042,7 @@
       <c r="AY4" s="1"/>
     </row>
     <row r="5" spans="2:70" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="92" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="46"/>
@@ -1683,10 +2050,10 @@
       <c r="E5" s="46"/>
       <c r="F5" s="46"/>
       <c r="G5" s="46"/>
-      <c r="H5" s="74" t="s">
+      <c r="H5" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="75"/>
+      <c r="I5" s="98"/>
       <c r="J5" s="20"/>
       <c r="K5" s="20"/>
       <c r="L5" s="20"/>
@@ -1712,7 +2079,7 @@
       <c r="AW5" s="1"/>
     </row>
     <row r="6" spans="2:70" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="70"/>
+      <c r="B6" s="93"/>
       <c r="C6" s="47" t="s">
         <v>2</v>
       </c>
@@ -1728,36 +2095,36 @@
       <c r="G6" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="76"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="90" t="s">
+      <c r="H6" s="99"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="90"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="90"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="90"/>
-      <c r="P6" s="90"/>
-      <c r="Q6" s="90"/>
-      <c r="R6" s="90"/>
-      <c r="S6" s="90"/>
-      <c r="T6" s="90"/>
-      <c r="U6" s="90"/>
-      <c r="V6" s="90"/>
-      <c r="W6" s="90"/>
-      <c r="X6" s="90"/>
-      <c r="Y6" s="90"/>
-      <c r="Z6" s="90"/>
-      <c r="AA6" s="90"/>
-      <c r="AB6" s="90"/>
-      <c r="AC6" s="91"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="71"/>
+      <c r="S6" s="71"/>
+      <c r="T6" s="71"/>
+      <c r="U6" s="71"/>
+      <c r="V6" s="71"/>
+      <c r="W6" s="71"/>
+      <c r="X6" s="71"/>
+      <c r="Y6" s="71"/>
+      <c r="Z6" s="71"/>
+      <c r="AA6" s="71"/>
+      <c r="AB6" s="71"/>
+      <c r="AC6" s="72"/>
       <c r="AU6" s="1"/>
       <c r="AV6" s="1"/>
       <c r="AW6" s="1"/>
     </row>
     <row r="7" spans="2:70" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="71"/>
+      <c r="B7" s="94"/>
       <c r="C7" s="48" t="s">
         <v>3</v>
       </c>
@@ -1773,30 +2140,30 @@
       <c r="G7" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="72" t="s">
+      <c r="H7" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="73"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="90"/>
-      <c r="M7" s="90"/>
-      <c r="N7" s="90"/>
-      <c r="O7" s="90"/>
-      <c r="P7" s="90"/>
-      <c r="Q7" s="90"/>
-      <c r="R7" s="90"/>
-      <c r="S7" s="90"/>
-      <c r="T7" s="90"/>
-      <c r="U7" s="90"/>
-      <c r="V7" s="90"/>
-      <c r="W7" s="90"/>
-      <c r="X7" s="90"/>
-      <c r="Y7" s="90"/>
-      <c r="Z7" s="90"/>
-      <c r="AA7" s="90"/>
-      <c r="AB7" s="90"/>
-      <c r="AC7" s="91"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="71"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="71"/>
+      <c r="R7" s="71"/>
+      <c r="S7" s="71"/>
+      <c r="T7" s="71"/>
+      <c r="U7" s="71"/>
+      <c r="V7" s="71"/>
+      <c r="W7" s="71"/>
+      <c r="X7" s="71"/>
+      <c r="Y7" s="71"/>
+      <c r="Z7" s="71"/>
+      <c r="AA7" s="71"/>
+      <c r="AB7" s="71"/>
+      <c r="AC7" s="72"/>
     </row>
     <row r="8" spans="2:70" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="25"/>
@@ -1810,35 +2177,35 @@
       <c r="J8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="86" t="s">
+      <c r="K8" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="L8" s="87"/>
+      <c r="L8" s="68"/>
       <c r="M8" s="13" t="s">
         <v>29</v>
       </c>
       <c r="N8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="O8" s="86" t="s">
+      <c r="O8" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="P8" s="87"/>
+      <c r="P8" s="68"/>
       <c r="Q8" s="13" t="s">
         <v>29</v>
       </c>
       <c r="R8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="S8" s="86" t="s">
+      <c r="S8" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="T8" s="87"/>
-      <c r="U8" s="94" t="s">
+      <c r="T8" s="68"/>
+      <c r="U8" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="V8" s="95"/>
-      <c r="W8" s="99" t="s">
+      <c r="V8" s="76"/>
+      <c r="W8" s="80" t="s">
         <v>42</v>
       </c>
       <c r="X8" s="13" t="s">
@@ -1879,29 +2246,29 @@
       <c r="J9" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="K9" s="88"/>
-      <c r="L9" s="89"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="70"/>
       <c r="M9" s="15" t="s">
         <v>36</v>
       </c>
       <c r="N9" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="O9" s="88"/>
-      <c r="P9" s="89"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="70"/>
       <c r="Q9" s="15" t="s">
         <v>32</v>
       </c>
       <c r="R9" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="S9" s="88"/>
-      <c r="T9" s="89"/>
-      <c r="U9" s="92" t="s">
+      <c r="S9" s="69"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="V9" s="93"/>
-      <c r="W9" s="100"/>
+      <c r="V9" s="74"/>
+      <c r="W9" s="81"/>
       <c r="X9" s="15" t="s">
         <v>43</v>
       </c>
@@ -1937,30 +2304,30 @@
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
-      <c r="J10" s="78" t="s">
+      <c r="J10" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="79"/>
-      <c r="L10" s="79"/>
-      <c r="M10" s="80"/>
-      <c r="N10" s="81" t="s">
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="82"/>
-      <c r="P10" s="82"/>
-      <c r="Q10" s="83"/>
-      <c r="R10" s="96" t="s">
+      <c r="O10" s="63"/>
+      <c r="P10" s="63"/>
+      <c r="Q10" s="64"/>
+      <c r="R10" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="S10" s="97"/>
-      <c r="T10" s="97"/>
-      <c r="U10" s="98"/>
-      <c r="V10" s="81" t="s">
+      <c r="S10" s="78"/>
+      <c r="T10" s="78"/>
+      <c r="U10" s="79"/>
+      <c r="V10" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="W10" s="82"/>
-      <c r="X10" s="82"/>
-      <c r="Y10" s="83"/>
+      <c r="W10" s="63"/>
+      <c r="X10" s="63"/>
+      <c r="Y10" s="64"/>
       <c r="Z10" s="17"/>
       <c r="AA10" s="17"/>
       <c r="AB10" s="17"/>
@@ -2068,16 +2435,16 @@
       <c r="BR11" s="1"/>
     </row>
     <row r="12" spans="2:70" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="63"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="86"/>
       <c r="J12" s="23"/>
       <c r="K12" s="23"/>
       <c r="L12" s="23"/>
@@ -2216,16 +2583,16 @@
       <c r="AC14" s="24"/>
     </row>
     <row r="15" spans="2:70" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="63"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="86"/>
       <c r="J15" s="23"/>
       <c r="K15" s="23"/>
       <c r="L15" s="23"/>
@@ -2340,16 +2707,16 @@
       <c r="AC17" s="24"/>
     </row>
     <row r="18" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="66"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="89"/>
       <c r="J18" s="23"/>
       <c r="K18" s="23"/>
       <c r="L18" s="23"/>
@@ -2556,16 +2923,16 @@
       <c r="AC22" s="24"/>
     </row>
     <row r="23" spans="2:29" ht="54" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="68"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="91"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="91"/>
+      <c r="I23" s="91"/>
       <c r="J23" s="23"/>
       <c r="K23" s="23"/>
       <c r="L23" s="23"/>
@@ -2588,8 +2955,8 @@
       <c r="AC23" s="24"/>
     </row>
     <row r="24" spans="2:29" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="39" t="s">
-        <v>27</v>
+      <c r="B24" s="101" t="s">
+        <v>47</v>
       </c>
       <c r="C24" s="32">
         <v>12</v>
@@ -2635,7 +3002,7 @@
     </row>
     <row r="25" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="39" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="C25" s="32">
         <v>12</v>
@@ -2681,7 +3048,7 @@
     </row>
     <row r="26" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="39" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="C26" s="32">
         <v>12</v>
@@ -2771,365 +3138,557 @@
       <c r="AB27" s="44"/>
       <c r="AC27" s="45"/>
     </row>
-    <row r="28" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
-      <c r="I28"/>
-      <c r="J28"/>
-      <c r="K28"/>
-      <c r="L28"/>
-      <c r="M28"/>
-      <c r="N28"/>
-      <c r="O28"/>
-      <c r="P28"/>
-      <c r="Q28"/>
-      <c r="R28"/>
-      <c r="S28"/>
-      <c r="T28"/>
-      <c r="U28"/>
-      <c r="V28"/>
-      <c r="W28"/>
-      <c r="X28"/>
-      <c r="Y28"/>
-      <c r="Z28"/>
-      <c r="AA28"/>
-      <c r="AB28"/>
-      <c r="AC28"/>
+    <row r="28" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="101" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="32">
+        <v>12</v>
+      </c>
+      <c r="D28" s="32">
+        <v>16</v>
+      </c>
+      <c r="E28" s="32">
+        <v>0</v>
+      </c>
+      <c r="F28" s="32">
+        <v>0</v>
+      </c>
+      <c r="G28" s="33">
+        <v>0</v>
+      </c>
+      <c r="H28" s="34">
+        <v>0</v>
+      </c>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="V28" s="23"/>
+      <c r="W28" s="23"/>
+      <c r="X28" s="23"/>
+      <c r="Y28" s="23"/>
+      <c r="Z28" s="23"/>
+      <c r="AA28" s="23"/>
+      <c r="AB28" s="23"/>
+      <c r="AC28" s="24"/>
     </row>
-    <row r="29" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="G29"/>
-      <c r="H29"/>
-      <c r="I29"/>
-      <c r="J29"/>
-      <c r="K29"/>
-      <c r="L29"/>
-      <c r="M29"/>
-      <c r="N29"/>
-      <c r="O29"/>
-      <c r="P29"/>
-      <c r="Q29"/>
-      <c r="R29"/>
-      <c r="S29"/>
-      <c r="T29"/>
-      <c r="U29"/>
-      <c r="V29"/>
-      <c r="W29"/>
-      <c r="X29"/>
-      <c r="Y29"/>
-      <c r="Z29"/>
-      <c r="AA29"/>
-      <c r="AB29"/>
-      <c r="AC29"/>
+    <row r="29" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="32">
+        <v>12</v>
+      </c>
+      <c r="D29" s="32">
+        <v>16</v>
+      </c>
+      <c r="E29" s="32">
+        <v>0</v>
+      </c>
+      <c r="F29" s="32">
+        <v>8</v>
+      </c>
+      <c r="G29" s="33">
+        <v>0</v>
+      </c>
+      <c r="H29" s="34">
+        <v>0</v>
+      </c>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="23"/>
+      <c r="U29" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="V29" s="23"/>
+      <c r="W29" s="23"/>
+      <c r="X29" s="23"/>
+      <c r="Y29" s="23"/>
+      <c r="Z29" s="23"/>
+      <c r="AA29" s="23"/>
+      <c r="AB29" s="23"/>
+      <c r="AC29" s="24"/>
     </row>
-    <row r="30" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30"/>
-      <c r="I30"/>
-      <c r="J30"/>
-      <c r="K30"/>
-      <c r="L30"/>
-      <c r="M30"/>
-      <c r="N30"/>
-      <c r="O30"/>
-      <c r="P30"/>
-      <c r="Q30"/>
-      <c r="R30"/>
-      <c r="S30"/>
-      <c r="T30"/>
-      <c r="U30"/>
-      <c r="V30"/>
-      <c r="W30"/>
-      <c r="X30"/>
-      <c r="Y30"/>
-      <c r="Z30"/>
-      <c r="AA30"/>
-      <c r="AB30"/>
-      <c r="AC30"/>
+    <row r="30" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="32">
+        <v>12</v>
+      </c>
+      <c r="D30" s="32">
+        <v>16</v>
+      </c>
+      <c r="E30" s="32">
+        <v>0</v>
+      </c>
+      <c r="F30" s="32">
+        <v>3</v>
+      </c>
+      <c r="G30" s="33">
+        <v>0</v>
+      </c>
+      <c r="H30" s="34">
+        <v>0</v>
+      </c>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="23"/>
+      <c r="S30" s="23"/>
+      <c r="T30" s="23"/>
+      <c r="U30" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="V30" s="23"/>
+      <c r="W30" s="23"/>
+      <c r="X30" s="23"/>
+      <c r="Y30" s="23"/>
+      <c r="Z30" s="23"/>
+      <c r="AA30" s="23"/>
+      <c r="AB30" s="23"/>
+      <c r="AC30" s="24"/>
     </row>
-    <row r="31" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31"/>
-      <c r="J31"/>
-      <c r="K31"/>
-      <c r="L31"/>
-      <c r="M31"/>
-      <c r="N31"/>
-      <c r="O31"/>
-      <c r="P31"/>
-      <c r="Q31"/>
-      <c r="R31"/>
-      <c r="S31"/>
-      <c r="T31"/>
-      <c r="U31"/>
-      <c r="V31"/>
-      <c r="W31"/>
-      <c r="X31"/>
-      <c r="Y31"/>
-      <c r="Z31"/>
-      <c r="AA31"/>
-      <c r="AB31"/>
-      <c r="AC31"/>
+    <row r="31" spans="2:29" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="41">
+        <v>12</v>
+      </c>
+      <c r="D31" s="41">
+        <v>16</v>
+      </c>
+      <c r="E31" s="41">
+        <v>0</v>
+      </c>
+      <c r="F31" s="41">
+        <v>7</v>
+      </c>
+      <c r="G31" s="42">
+        <v>0</v>
+      </c>
+      <c r="H31" s="43">
+        <v>0</v>
+      </c>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="44"/>
+      <c r="O31" s="44"/>
+      <c r="P31" s="44"/>
+      <c r="Q31" s="44"/>
+      <c r="R31" s="44"/>
+      <c r="S31" s="44"/>
+      <c r="T31" s="44"/>
+      <c r="U31" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="V31" s="44"/>
+      <c r="W31" s="44"/>
+      <c r="X31" s="44"/>
+      <c r="Y31" s="44"/>
+      <c r="Z31" s="44"/>
+      <c r="AA31" s="44"/>
+      <c r="AB31" s="44"/>
+      <c r="AC31" s="45"/>
     </row>
-    <row r="32" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="G32"/>
-      <c r="H32"/>
-      <c r="I32"/>
-      <c r="J32"/>
-      <c r="K32"/>
-      <c r="L32"/>
-      <c r="M32"/>
-      <c r="N32"/>
-      <c r="O32"/>
-      <c r="P32"/>
-      <c r="Q32"/>
-      <c r="R32"/>
-      <c r="S32"/>
-      <c r="T32"/>
-      <c r="U32"/>
-      <c r="V32"/>
-      <c r="W32"/>
-      <c r="X32"/>
-      <c r="Y32"/>
-      <c r="Z32"/>
-      <c r="AA32"/>
-      <c r="AB32"/>
-      <c r="AC32"/>
+    <row r="32" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="101" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="32">
+        <v>12</v>
+      </c>
+      <c r="D32" s="32">
+        <v>16</v>
+      </c>
+      <c r="E32" s="32">
+        <v>0</v>
+      </c>
+      <c r="F32" s="32">
+        <v>0</v>
+      </c>
+      <c r="G32" s="33">
+        <v>0</v>
+      </c>
+      <c r="H32" s="34">
+        <v>0</v>
+      </c>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="23"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="V32" s="23"/>
+      <c r="W32" s="23"/>
+      <c r="X32" s="23"/>
+      <c r="Y32" s="23"/>
+      <c r="Z32" s="23"/>
+      <c r="AA32" s="23"/>
+      <c r="AB32" s="23"/>
+      <c r="AC32" s="24"/>
     </row>
-    <row r="33" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
-      <c r="H33"/>
-      <c r="I33"/>
-      <c r="J33"/>
-      <c r="K33"/>
-      <c r="L33"/>
-      <c r="M33"/>
-      <c r="N33"/>
-      <c r="O33"/>
-      <c r="P33"/>
-      <c r="Q33"/>
-      <c r="R33"/>
-      <c r="S33"/>
-      <c r="T33"/>
-      <c r="U33"/>
-      <c r="V33"/>
-      <c r="W33"/>
-      <c r="X33"/>
-      <c r="Y33"/>
-      <c r="Z33"/>
-      <c r="AA33"/>
-      <c r="AB33"/>
-      <c r="AC33"/>
+    <row r="33" spans="2:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="32">
+        <v>12</v>
+      </c>
+      <c r="D33" s="32">
+        <v>16</v>
+      </c>
+      <c r="E33" s="32">
+        <v>0</v>
+      </c>
+      <c r="F33" s="32">
+        <v>8</v>
+      </c>
+      <c r="G33" s="33">
+        <v>0</v>
+      </c>
+      <c r="H33" s="34">
+        <v>0</v>
+      </c>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="23"/>
+      <c r="S33" s="23"/>
+      <c r="T33" s="23"/>
+      <c r="U33" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="V33" s="23"/>
+      <c r="W33" s="23"/>
+      <c r="X33" s="23"/>
+      <c r="Y33" s="23"/>
+      <c r="Z33" s="23"/>
+      <c r="AA33" s="23"/>
+      <c r="AB33" s="23"/>
+      <c r="AC33" s="24"/>
     </row>
-    <row r="34" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34"/>
-      <c r="I34"/>
-      <c r="J34"/>
-      <c r="K34"/>
-      <c r="L34"/>
-      <c r="M34"/>
-      <c r="N34"/>
-      <c r="O34"/>
-      <c r="P34"/>
-      <c r="Q34"/>
-      <c r="R34"/>
-      <c r="S34"/>
-      <c r="T34"/>
-      <c r="U34"/>
-      <c r="V34"/>
-      <c r="W34"/>
-      <c r="X34"/>
-      <c r="Y34"/>
-      <c r="Z34"/>
-      <c r="AA34"/>
-      <c r="AB34"/>
-      <c r="AC34"/>
+    <row r="34" spans="2:29" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="102" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="32">
+        <v>12</v>
+      </c>
+      <c r="D34" s="32">
+        <v>16</v>
+      </c>
+      <c r="E34" s="32">
+        <v>0</v>
+      </c>
+      <c r="F34" s="32">
+        <v>3</v>
+      </c>
+      <c r="G34" s="33">
+        <v>0</v>
+      </c>
+      <c r="H34" s="34">
+        <v>0</v>
+      </c>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="23"/>
+      <c r="S34" s="23"/>
+      <c r="T34" s="23"/>
+      <c r="U34" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="V34" s="23"/>
+      <c r="W34" s="23"/>
+      <c r="X34" s="23"/>
+      <c r="Y34" s="23"/>
+      <c r="Z34" s="23"/>
+      <c r="AA34" s="23"/>
+      <c r="AB34" s="23"/>
+      <c r="AC34" s="24"/>
     </row>
-    <row r="35" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35"/>
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35"/>
-      <c r="G35"/>
-      <c r="H35"/>
-      <c r="I35"/>
-      <c r="J35"/>
-      <c r="K35"/>
-      <c r="L35"/>
-      <c r="M35"/>
-      <c r="N35"/>
-      <c r="O35"/>
-      <c r="P35"/>
-      <c r="Q35"/>
-      <c r="R35"/>
-      <c r="S35"/>
-      <c r="T35"/>
-      <c r="U35"/>
-      <c r="V35"/>
-      <c r="W35"/>
-      <c r="X35"/>
-      <c r="Y35"/>
-      <c r="Z35"/>
-      <c r="AA35"/>
-      <c r="AB35"/>
-      <c r="AC35"/>
+    <row r="35" spans="2:29" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="41">
+        <v>12</v>
+      </c>
+      <c r="D35" s="41">
+        <v>16</v>
+      </c>
+      <c r="E35" s="41">
+        <v>0</v>
+      </c>
+      <c r="F35" s="41">
+        <v>7</v>
+      </c>
+      <c r="G35" s="42">
+        <v>0</v>
+      </c>
+      <c r="H35" s="43">
+        <v>0</v>
+      </c>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="44"/>
+      <c r="N35" s="44"/>
+      <c r="O35" s="44"/>
+      <c r="P35" s="44"/>
+      <c r="Q35" s="44"/>
+      <c r="R35" s="44"/>
+      <c r="S35" s="44"/>
+      <c r="T35" s="44"/>
+      <c r="U35" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="V35" s="44"/>
+      <c r="W35" s="44"/>
+      <c r="X35" s="44"/>
+      <c r="Y35" s="44"/>
+      <c r="Z35" s="44"/>
+      <c r="AA35" s="44"/>
+      <c r="AB35" s="44"/>
+      <c r="AC35" s="45"/>
     </row>
-    <row r="36" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36"/>
-      <c r="C36"/>
-      <c r="D36"/>
-      <c r="E36"/>
-      <c r="F36"/>
-      <c r="G36"/>
-      <c r="H36"/>
-      <c r="I36"/>
-      <c r="J36"/>
-      <c r="K36"/>
-      <c r="L36"/>
-      <c r="M36"/>
-      <c r="N36"/>
-      <c r="O36"/>
-      <c r="P36"/>
-      <c r="Q36"/>
-      <c r="R36"/>
-      <c r="S36"/>
-      <c r="T36"/>
-      <c r="U36"/>
-      <c r="V36"/>
-      <c r="W36"/>
-      <c r="X36"/>
-      <c r="Y36"/>
-      <c r="Z36"/>
-      <c r="AA36"/>
-      <c r="AB36"/>
-      <c r="AC36"/>
+    <row r="36" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="101" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="32">
+        <v>12</v>
+      </c>
+      <c r="D36" s="32">
+        <v>16</v>
+      </c>
+      <c r="E36" s="32">
+        <v>0</v>
+      </c>
+      <c r="F36" s="32">
+        <v>0</v>
+      </c>
+      <c r="G36" s="33">
+        <v>0</v>
+      </c>
+      <c r="H36" s="34">
+        <v>0</v>
+      </c>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="23"/>
+      <c r="Q36" s="23"/>
+      <c r="R36" s="23"/>
+      <c r="S36" s="23"/>
+      <c r="T36" s="23"/>
+      <c r="U36" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="V36" s="23"/>
+      <c r="W36" s="23"/>
+      <c r="X36" s="23"/>
+      <c r="Y36" s="23"/>
+      <c r="Z36" s="23"/>
+      <c r="AA36" s="23"/>
+      <c r="AB36" s="23"/>
+      <c r="AC36" s="24"/>
     </row>
-    <row r="37" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37"/>
-      <c r="C37"/>
-      <c r="D37"/>
-      <c r="E37"/>
-      <c r="F37"/>
-      <c r="G37"/>
-      <c r="H37"/>
-      <c r="I37"/>
-      <c r="J37"/>
-      <c r="K37"/>
-      <c r="L37"/>
-      <c r="M37"/>
-      <c r="N37"/>
-      <c r="O37"/>
-      <c r="P37"/>
-      <c r="Q37"/>
-      <c r="R37"/>
-      <c r="S37"/>
-      <c r="T37"/>
-      <c r="U37"/>
-      <c r="V37"/>
-      <c r="W37"/>
-      <c r="X37"/>
-      <c r="Y37"/>
-      <c r="Z37"/>
-      <c r="AA37"/>
-      <c r="AB37"/>
-      <c r="AC37"/>
+    <row r="37" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="32">
+        <v>12</v>
+      </c>
+      <c r="D37" s="32">
+        <v>16</v>
+      </c>
+      <c r="E37" s="32">
+        <v>0</v>
+      </c>
+      <c r="F37" s="32">
+        <v>8</v>
+      </c>
+      <c r="G37" s="33">
+        <v>0</v>
+      </c>
+      <c r="H37" s="34">
+        <v>0</v>
+      </c>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="23"/>
+      <c r="Q37" s="23"/>
+      <c r="R37" s="23"/>
+      <c r="S37" s="23"/>
+      <c r="T37" s="23"/>
+      <c r="U37" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="V37" s="23"/>
+      <c r="W37" s="23"/>
+      <c r="X37" s="23"/>
+      <c r="Y37" s="23"/>
+      <c r="Z37" s="23"/>
+      <c r="AA37" s="23"/>
+      <c r="AB37" s="23"/>
+      <c r="AC37" s="24"/>
     </row>
-    <row r="38" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38"/>
-      <c r="C38"/>
-      <c r="D38"/>
-      <c r="E38"/>
-      <c r="F38"/>
-      <c r="G38"/>
-      <c r="H38"/>
-      <c r="I38"/>
-      <c r="J38"/>
-      <c r="K38"/>
-      <c r="L38"/>
-      <c r="M38"/>
-      <c r="N38"/>
-      <c r="O38"/>
-      <c r="P38"/>
-      <c r="Q38"/>
-      <c r="R38"/>
-      <c r="S38"/>
-      <c r="T38"/>
-      <c r="U38"/>
-      <c r="V38"/>
-      <c r="W38"/>
-      <c r="X38"/>
-      <c r="Y38"/>
-      <c r="Z38"/>
-      <c r="AA38"/>
-      <c r="AB38"/>
-      <c r="AC38"/>
+    <row r="38" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="32">
+        <v>12</v>
+      </c>
+      <c r="D38" s="32">
+        <v>16</v>
+      </c>
+      <c r="E38" s="32">
+        <v>0</v>
+      </c>
+      <c r="F38" s="32">
+        <v>3</v>
+      </c>
+      <c r="G38" s="33">
+        <v>0</v>
+      </c>
+      <c r="H38" s="34">
+        <v>0</v>
+      </c>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="23"/>
+      <c r="O38" s="23"/>
+      <c r="P38" s="23"/>
+      <c r="Q38" s="23"/>
+      <c r="R38" s="23"/>
+      <c r="S38" s="23"/>
+      <c r="T38" s="23"/>
+      <c r="U38" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="V38" s="23"/>
+      <c r="W38" s="23"/>
+      <c r="X38" s="23"/>
+      <c r="Y38" s="23"/>
+      <c r="Z38" s="23"/>
+      <c r="AA38" s="23"/>
+      <c r="AB38" s="23"/>
+      <c r="AC38" s="24"/>
     </row>
-    <row r="39" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39"/>
-      <c r="C39"/>
-      <c r="D39"/>
-      <c r="E39"/>
-      <c r="F39"/>
-      <c r="G39"/>
-      <c r="H39"/>
-      <c r="I39"/>
-      <c r="J39"/>
-      <c r="K39"/>
-      <c r="L39"/>
-      <c r="M39"/>
-      <c r="N39"/>
-      <c r="O39"/>
-      <c r="P39"/>
-      <c r="Q39"/>
-      <c r="R39"/>
-      <c r="S39"/>
-      <c r="T39"/>
-      <c r="U39"/>
-      <c r="V39"/>
-      <c r="W39"/>
-      <c r="X39"/>
-      <c r="Y39"/>
-      <c r="Z39"/>
-      <c r="AA39"/>
-      <c r="AB39"/>
-      <c r="AC39"/>
+    <row r="39" spans="2:29" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="41">
+        <v>12</v>
+      </c>
+      <c r="D39" s="41">
+        <v>16</v>
+      </c>
+      <c r="E39" s="41">
+        <v>0</v>
+      </c>
+      <c r="F39" s="41">
+        <v>7</v>
+      </c>
+      <c r="G39" s="42">
+        <v>0</v>
+      </c>
+      <c r="H39" s="43">
+        <v>0</v>
+      </c>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="44"/>
+      <c r="O39" s="44"/>
+      <c r="P39" s="44"/>
+      <c r="Q39" s="44"/>
+      <c r="R39" s="44"/>
+      <c r="S39" s="44"/>
+      <c r="T39" s="44"/>
+      <c r="U39" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="V39" s="44"/>
+      <c r="W39" s="44"/>
+      <c r="X39" s="44"/>
+      <c r="Y39" s="44"/>
+      <c r="Z39" s="44"/>
+      <c r="AA39" s="44"/>
+      <c r="AB39" s="44"/>
+      <c r="AC39" s="45"/>
     </row>
     <row r="40" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40"/>
@@ -3164,6 +3723,14 @@
     <row r="41" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B2:H4"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H5:I6"/>
     <mergeCell ref="J10:M10"/>
     <mergeCell ref="N10:Q10"/>
     <mergeCell ref="O3:Q3"/>
@@ -3176,49 +3743,119 @@
     <mergeCell ref="U8:V8"/>
     <mergeCell ref="R10:U10"/>
     <mergeCell ref="W8:W9"/>
-    <mergeCell ref="B2:H4"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H5:I6"/>
   </mergeCells>
   <conditionalFormatting sqref="J12:AC14 J15:T15 V15:AC17 T17:U17 U15:U16 J16:S17 J18:AC27">
-    <cfRule type="expression" dxfId="9" priority="17">
+    <cfRule type="expression" dxfId="33" priority="41">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="19">
+    <cfRule type="expression" dxfId="32" priority="43">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="20">
+    <cfRule type="expression" dxfId="31" priority="44">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="21">
+    <cfRule type="expression" dxfId="30" priority="45">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="22">
+    <cfRule type="expression" dxfId="29" priority="46">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="23">
+    <cfRule type="expression" dxfId="28" priority="47">
       <formula>J$11=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="27">
+    <cfRule type="expression" dxfId="27" priority="51">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="28">
+    <cfRule type="expression" dxfId="26" priority="52">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD42:BQ42 B41:AC41">
-    <cfRule type="expression" dxfId="1" priority="18">
+    <cfRule type="expression" dxfId="25" priority="42">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:AC11">
-    <cfRule type="expression" dxfId="0" priority="24">
+    <cfRule type="expression" dxfId="24" priority="48">
       <formula>J$11=period_selected</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28:AC31">
+    <cfRule type="expression" dxfId="23" priority="17">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="18">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="19">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="20">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="21">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="22">
+      <formula>J$11=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="23">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="24">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32:AC35">
+    <cfRule type="expression" dxfId="15" priority="9">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="10">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="11">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="12">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="13">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="14">
+      <formula>J$11=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="15">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="16">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J36:AC39">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="2">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="6">
+      <formula>J$11=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="7">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="8">
+      <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
